--- a/medicine/Enfance/Colonel_Moutarde_(dessinatrice)/Colonel_Moutarde_(dessinatrice).xlsx
+++ b/medicine/Enfance/Colonel_Moutarde_(dessinatrice)/Colonel_Moutarde_(dessinatrice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colonel Moutarde (pseudonyme de Christelle Ruth), née le 2 janvier 1968 à Guérande, est une illustratrice et auteure de bande dessinée française.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autodidacte dans le domaine de l'illustration, Christelle Ruth participe notamment à des fanzines tels que Le Goinfre et Jade avant de participer à Spirou[1]. Son pseudonyme (Colonel Moutarde), qu'elle utilise à partir de 1995, provient du jeu de Cluedo.
-Dans la série Le Meilleur de moi, prépubliée dans Spirou entre 1999 et 2001[2], Colonel Moutarde illustre le quotidien de son scénariste et compagnon, Philippe Dumez[3].
-Avec Johnny Rien à foutre, elle adapte en bandes dessinées le journal de Andy, un mystérieux punk canadien, qui racontait sa vie de tous les jours dans le fanzine I'm Johnny and I don't give a fuck[3],[4] tiré à quelques centaines d'exemplaires et découvert par hasard par son compagnon Philippe Dumez dans une librairie du côté de Chicago[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autodidacte dans le domaine de l'illustration, Christelle Ruth participe notamment à des fanzines tels que Le Goinfre et Jade avant de participer à Spirou. Son pseudonyme (Colonel Moutarde), qu'elle utilise à partir de 1995, provient du jeu de Cluedo.
+Dans la série Le Meilleur de moi, prépubliée dans Spirou entre 1999 et 2001, Colonel Moutarde illustre le quotidien de son scénariste et compagnon, Philippe Dumez.
+Avec Johnny Rien à foutre, elle adapte en bandes dessinées le journal de Andy, un mystérieux punk canadien, qui racontait sa vie de tous les jours dans le fanzine I'm Johnny and I don't give a fuck, tiré à quelques centaines d'exemplaires et découvert par hasard par son compagnon Philippe Dumez dans une librairie du côté de Chicago.
 Dans le  magazine de bandes dessinées Capsule cosmique, Colonel Moutarde dessine les aventures de Grenadine et Mentalo. Un premier album sort aux Éditions Milan en janvier 2006 et un second l'année suivante. La série cesse avec la disparition de Capsule Cosmique, mais une adaptation animée est produite à partir de 2010 par le studio Patoon-Animation/HLC.[réf. nécessaire]
-À partir de 2007, avec Brigitte Luciani elle publie la série jeunesse Maïa (sélection jeunesse au festival d'Angoulême 2011)[5] chez Dargaud et, chez Delcourt, trois albums d'inspiration oulipienne : L'Espace d'un soir[6],[7], où les pages sont découpées en bandes montrant chacune un étage où se déroule l'histoire, Comédie d'amour[8],[9], où le narrateur interagit avec les protagonistes, et Histoires cachées[10],[11], prévu pour être lu une première fois d'une traite, puis une seconde en découpant les pages dont les cahiers, dont les tranches sont restées intactes, massicotées[12].
+À partir de 2007, avec Brigitte Luciani elle publie la série jeunesse Maïa (sélection jeunesse au festival d'Angoulême 2011) chez Dargaud et, chez Delcourt, trois albums d'inspiration oulipienne : L'Espace d'un soir où les pages sont découpées en bandes montrant chacune un étage où se déroule l'histoire, Comédie d'amour où le narrateur interagit avec les protagonistes, et Histoires cachées prévu pour être lu une première fois d'une traite, puis une seconde en découpant les pages dont les cahiers, dont les tranches sont restées intactes, massicotées.
 Elle exerce également dans le domaine de la publicité (Hôtel Meurice, La Redoute, Primagaz, la RATP, Lu, Danone, Faure, Nivéa) et de la mode, et collabore pour la presse (Okapi, Astrapi, DLire, Les Inrockuptibles, Madame Figaro, Cosmopolitan, Marie Claire, Anna, Frau, Vogue Japon).[réf. nécessaire]
 </t>
         </is>
@@ -549,15 +563,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Séries en bande dessinées
-Le Meilleur de moi, scénario de Philippe Dumez, Éditions Dupuis :
-Entrechats, 2000  (ISBN 2-8001-2999-9)[13]
+          <t>Séries en bande dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Meilleur de moi, scénario de Philippe Dumez, Éditions Dupuis :
+Entrechats, 2000  (ISBN 2-8001-2999-9)
 La Force est avec moi, 2001   (ISBN 2-8001-3135-7) ;
 Enfantillages, 2002  (ISBN 2-8001-3235-3).
 Grenadine et Mentalo, Éditions Milan :
 Haut les mains peau de pingouin !, 2006  (ISBN 2745918842) ;
 Fille ou Glaçon ?, 2007  (ISBN 978-2-7459-2573-2).
-L'Espace d'un soir, scénario de Brigitte Luciani, Éditions  Delcourt, 2007[14].
+L'Espace d'un soir, scénario de Brigitte Luciani, Éditions  Delcourt, 2007.
 L'espace d'un soir, 2007  (ISBN 2756004731)
 Comédie d'amour, 2008  (ISBN 978-2-7560-1133-2).
 Histoires cachées, 2009  (ISBN 978-2-7560-1597-2)
@@ -573,11 +592,80 @@
 Charlotte et son cheval, chez BD kids
 La saison des pommes, 2014
 La saison des galops, 2017
-La saison des z'amours (à paraître)
-One-shot en bandes dessinées
-Johnny rien-à-foutre, scénario d'Andy, Éditions PLG, 2001  (ISBN 2-9515578-1-7).
-La soupe au poivre, scénario de Nathalie Dargent, Éditions PLG, 2012  (ISBN 2917837101)
-Séries jeunesse
+La saison des z'amours (à paraître)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>One-shot en bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Johnny rien-à-foutre, scénario d'Andy, Éditions PLG, 2001  (ISBN 2-9515578-1-7).
+La soupe au poivre, scénario de Nathalie Dargent, Éditions PLG, 2012  (ISBN 2917837101)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bijou et Yiyi, textes de Nathalie Dargent, Éditions Gautier-Languereau (2013-2014)
 Le tour du monde de Yiyi
 La machine à laver les bisous
@@ -627,34 +715,205 @@
 Un cartable pour la rentrée
 Le match filles-garçons
 Un mercredi trop rempli
-Divers jeunesse
-Sauf mention contraire, Colonel Moutarde est illustratrice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Divers jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, Colonel Moutarde est illustratrice.
 Zoé et la sorcière du quatrième, texte de Thierry Lenain, Milan, 2005
 Un Noël ébouripoustouflant, Gautier Languereau, 2013
 L'histoire du lion qui ne savait pas compter, Glénat, coll. « Ptit Glénat », 2013
 À Chouchou pour la vie, Sarbacane, 2014
 Les gâteaux porte-bonheur, Glénat, coll. « Ptit Glénat », 2013
 Alice in Wonderland, Campbell, 2015
-Colonel Moutarde et Yaël Hassan, Défi d'enfer, Bayard Jeunesse, coll. « J'aime lire Plus », 5 janvier 2006, 61 p. (ISBN 978-2-7470-2001-5)
-Contes
-Élodie Fondacci (textes) et Colonel Moutarde (Illustrations), Casse-Noisette, Paris, Gautier Languereau, coll. « Histoires en musique », 10 juin 2015 (ISBN 978-2-01-397889-7)
+Colonel Moutarde et Yaël Hassan, Défi d'enfer, Bayard Jeunesse, coll. « J'aime lire Plus », 5 janvier 2006, 61 p. (ISBN 978-2-7470-2001-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Élodie Fondacci (textes) et Colonel Moutarde (Illustrations), Casse-Noisette, Paris, Gautier Languereau, coll. « Histoires en musique », 10 juin 2015 (ISBN 978-2-01-397889-7)
 Colonel Moutarde, La Belle et la Bête, Auzou, 2014
 Colonel Moutarde, Blanche-Neige, Toulouse, Milan, 8 janvier 2014 (ISBN 978-2-7459-6197-6)
-Colonel Moutarde, Le vilain petit canard, Milan, 2015
-Documentaires jeunesse
-Sauf mention contraire, Colonel Moutarde est l'illustratrice.
+Colonel Moutarde, Le vilain petit canard, Milan, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Documentaires jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, Colonel Moutarde est l'illustratrice.
 Chez le docteur, Larousse, coll. « Ma Baby encyclopédie », 2013
 Les chevaliers, Larousse, coll. « Ma Baby encyclopédie », 2013
 Le château à déplier, Paris, Albin Michel jeunesse, coll. « Petite enfance », 2015, 8 p. (ISBN 978-2-226-31531-1)
 Stéphane Frattini (textes), Les gros mots, Toulouse, Milan, coll. « Mes p'tites questions Milan », 15 avril 2015, 37 p. (ISBN 978-2-7459-6785-5)
 Christine Naumann-Villemin (textes), Les dents, Milan, coll. « Mes p'tites questions Milan », 2016
 Pascale Hédelin (textes), Les animaux de compagnie, Toulouse, Milan, coll. « Mes p'tites questions Milan », 4 avril 2018, 37 p. (ISBN 978-2-7459-9442-4)
-Colonel Moutarde (texte et dessins), Connaître et protéger la petite faune urbaine, éditions Marabout, 31 mars 2021, 128 p., 195 × 195 mm (EAN 9782501160209, présentation en ligne)
-Dessin animé
-2010 : Grenadine et Mentalo, trois saisons de 26 épisodes (78 épisodes de 7' au total)[15]
-2011 : Sherlock Yack, une saison de 52 épisodes de 13 minutes, d'après les romans de Michel Amelin.
-Micro-édition
-Aux Éditions Tout tout seul, avec Mac Plane, pour des tirages de 30 à 50 exemplaires (épuisés, n'ayant apparemment pas tous véritablement existé au-delà du titre ou de la couverture ; cette liste est donc à considérer avec circonspection) :
+Colonel Moutarde (texte et dessins), Connaître et protéger la petite faune urbaine, éditions Marabout, 31 mars 2021, 128 p., 195 × 195 mm (EAN 9782501160209, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dessin animé</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2010 : Grenadine et Mentalo, trois saisons de 26 épisodes (78 épisodes de 7' au total)
+2011 : Sherlock Yack, une saison de 52 épisodes de 13 minutes, d'après les romans de Michel Amelin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonel_Moutarde_(dessinatrice)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Micro-édition</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Éditions Tout tout seul, avec Mac Plane, pour des tirages de 30 à 50 exemplaires (épuisés, n'ayant apparemment pas tous véritablement existé au-delà du titre ou de la couverture ; cette liste est donc à considérer avec circonspection) :
 Soyez Cake ;
 Cakou poche ;
 Le Rouge et le Cake ;
